--- a/datas/个人信息接口用例.xlsx
+++ b/datas/个人信息接口用例.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>case_id</t>
   </si>
@@ -60,19 +61,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>修改Nickname-修改成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"code":0,"msg":"OK","data":{"verified":True,"avatarType":None,"avatarValue":None,"refusePush":False,"encrypt":True}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改firstname-修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改lastname-修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"email":"#email#","nickname":"#nickname#","firstName":"#firstname#","lastName":"","gender":"","birthdate":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"email":"#email#","nickname":"#nickname#","firstName":"#firstname#","lastName":"#lastname#","gender":"","birthdate":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改性别-修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"email":"#email#","nickname":"#nickname#","firstName":"#firstname#","lastName":"#lastname#","gender":"#gender#","birthdate":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改生日-修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"email":"#email#","nickname":"#nickname#","firstName":"#firstname#","lastName":"#lastname#","gender":"#gender#","birthdate":"#birthdate#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","data":{"verified":True,"avatarType":None,"avatarValue":None,"refusePush":False,"encrypt":True}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","data":{"verified":True,"avatarType":None,"avatarValue":None,"refusePush":False,"encrypt":True}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","data":{"verified":True,"avatarType":None,"avatarValue":None,"refusePush":False,"encrypt":True}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"email":"#email#","nickname":"","firstName":"","lastName":"","gender":"","birthdate":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 100008,
+    "msg": "nickname:size must be between 1 and 2147483647"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改Nickname为空-修改失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改firstname为空-修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"email":"#email#","nickname":"#nickname#","firstName":"","lastName":"","gender":"","birthdate":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>put</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
+    <t>{"email":"#email#","nickname":"#nickname#","firstName":"","lastName":"#lastname#","gender":"","birthdate":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"email":"#email#","nickname":"#nickname#","firstName":"#firstname#","lastName":"#lastname#","gender":"","birthdate":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改lastname为空-修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"email":"#email#","nickname":"#nickname#","firstName":"#firstname#","lastName":"","gender":"","birthdate":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改性别为空-修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改生日为空-修改失败（bug）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"email":"#email#","nickname":"#nickname#","firstName":"#firstname#","lastName":"#lastname#","gender":"#gender#","birthdate":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -424,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -444,19 +548,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -464,18 +568,215 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
